--- a/resources/data-imports/locations.xlsx
+++ b/resources/data-imports/locations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">enemy_strength_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can_auto_battle</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
@@ -391,13 +394,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.28"/>
@@ -407,12 +410,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="5.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,16 +449,19 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>1</v>
@@ -464,21 +470,24 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>1</v>
@@ -487,21 +496,24 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="K3" s="1" t="n">
         <v>496</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>1</v>
@@ -510,24 +522,27 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="K4" s="1" t="n">
         <v>288</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>1</v>
@@ -536,21 +551,24 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="n">
         <v>432</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <v>208</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>1</v>
@@ -559,110 +577,125 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="K6" s="1" t="n">
         <v>256</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="K7" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="L7" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="K8" s="1" t="n">
         <v>176</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="K9" s="1" t="n">
         <v>336</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="J10" s="1" t="n">
+      <c r="K10" s="1" t="n">
         <v>368</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>1</v>
@@ -671,24 +704,27 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="K11" s="1" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>1</v>
@@ -697,24 +733,27 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="K12" s="1" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>1</v>
@@ -723,81 +762,93 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="J13" s="1" t="n">
+      <c r="K13" s="1" t="n">
         <v>384</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="K14" s="1" t="n">
         <v>432</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="J15" s="1" t="n">
+      <c r="K15" s="1" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="n">
         <v>448</v>
       </c>
-      <c r="J16" s="1" t="n">
+      <c r="K16" s="1" t="n">
         <v>368</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>1</v>
@@ -806,41 +857,47 @@
         <v>1</v>
       </c>
       <c r="I17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="n">
         <v>464</v>
       </c>
-      <c r="J17" s="1" t="n">
+      <c r="K17" s="1" t="n">
         <v>304</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="J18" s="1" t="n">
+      <c r="K18" s="1" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>1</v>
@@ -849,21 +906,24 @@
         <v>1</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="n">
         <v>112</v>
       </c>
+      <c r="K19" s="1" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>1</v>
@@ -872,41 +932,47 @@
         <v>1</v>
       </c>
       <c r="I20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="J20" s="1" t="n">
+      <c r="K20" s="1" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="n">
         <v>464</v>
       </c>
-      <c r="J21" s="1" t="n">
+      <c r="K21" s="1" t="n">
         <v>336</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>1</v>
@@ -915,21 +981,24 @@
         <v>1</v>
       </c>
       <c r="I22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="J22" s="1" t="n">
+      <c r="K22" s="1" t="n">
         <v>144</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>1</v>
@@ -938,24 +1007,27 @@
         <v>2</v>
       </c>
       <c r="I23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="J23" s="1" t="n">
+      <c r="K23" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="K23" s="1" t="n">
+      <c r="L23" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>1</v>
@@ -964,21 +1036,24 @@
         <v>1</v>
       </c>
       <c r="I24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="J24" s="1" t="n">
+      <c r="K24" s="1" t="n">
         <v>464</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>1</v>
@@ -987,21 +1062,24 @@
         <v>3</v>
       </c>
       <c r="I25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="J25" s="1" t="n">
+      <c r="K25" s="1" t="n">
         <v>464</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>1</v>
@@ -1010,21 +1088,24 @@
         <v>1</v>
       </c>
       <c r="I26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="J26" s="1" t="n">
+      <c r="K26" s="1" t="n">
         <v>336</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>1</v>
@@ -1033,21 +1114,24 @@
         <v>1</v>
       </c>
       <c r="I27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="J27" s="1" t="n">
+      <c r="K27" s="1" t="n">
         <v>272</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>1</v>
@@ -1056,21 +1140,24 @@
         <v>0</v>
       </c>
       <c r="I28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="J28" s="1" t="n">
+      <c r="K28" s="1" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>1</v>
@@ -1079,21 +1166,24 @@
         <v>1</v>
       </c>
       <c r="I29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="J29" s="1" t="n">
+      <c r="K29" s="1" t="n">
         <v>176</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>1</v>
@@ -1102,21 +1192,24 @@
         <v>2</v>
       </c>
       <c r="I30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="J30" s="1" t="n">
+      <c r="K30" s="1" t="n">
         <v>224</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>1</v>
@@ -1125,90 +1218,102 @@
         <v>4</v>
       </c>
       <c r="I31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="J31" s="1" t="n">
+      <c r="K31" s="1" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="J32" s="1" t="n">
+      <c r="K32" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="K32" s="1" t="n">
+      <c r="L32" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="J33" s="1" t="n">
+      <c r="K33" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="K33" s="1" t="n">
+      <c r="L33" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="n">
         <v>368</v>
       </c>
-      <c r="J34" s="1" t="n">
+      <c r="K34" s="1" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>1</v>
@@ -1217,12 +1322,15 @@
         <v>4</v>
       </c>
       <c r="I35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="J35" s="1" t="n">
+      <c r="K35" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="K35" s="1" t="n">
+      <c r="L35" s="1" t="n">
         <v>2</v>
       </c>
     </row>

--- a/resources/data-imports/locations.xlsx
+++ b/resources/data-imports/locations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="101">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -302,6 +302,27 @@
   </si>
   <si>
     <t xml:space="preserve">The dungeons of a child's mind, a broken and shattered mind, contain the evils unspoken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abandoned Village</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ice Plane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no one around, the buildings are frozen, empty, dark and cold. You explore around and eventually end up at the port. Where is every one?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Dragons Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Ice Dragon is suppose to live around these parts somewhere. It is said this creature hoards the gold and treasure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frozen Queens Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This bank use to hold the funds of the Ice Queens Treasury. She abandoned the bank and took her treasure - but what took over was corrupted creatures. It is said there are remnants if the treasure still hidden in the depths of the bank.</t>
   </si>
 </sst>
 </file>
@@ -377,8 +398,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -399,1049 +428,1152 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="36:38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="112.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="112.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="5.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="F2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="0" t="n">
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>496</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="0" t="n">
+      <c r="F4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="n">
         <v>432</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="M5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="0" t="n">
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="G7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="0" t="n">
+      <c r="G8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="0" t="n">
+      <c r="G9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="M9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="0" t="n">
+      <c r="G10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <v>368</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="0" t="n">
+      <c r="F11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="0" t="n">
+      <c r="F12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="K12" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="M12" s="0" t="s">
+      <c r="K12" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="0" t="n">
+      <c r="F13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="M13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="0" t="n">
+      <c r="G14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <v>432</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="M14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="0" t="n">
+      <c r="G15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="M15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="0" t="n">
+      <c r="G16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="n">
         <v>448</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <v>368</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="M16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="0" t="n">
+      <c r="F17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="n">
         <v>464</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="M17" s="0" t="s">
+      <c r="M17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="0" t="n">
+      <c r="G18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="M18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="0" t="n">
+      <c r="F19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="M19" s="0" t="s">
+      <c r="M19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="0" t="n">
+      <c r="F20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="K20" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="M20" s="0" t="s">
+      <c r="K20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="0" t="n">
+      <c r="G21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="n">
         <v>464</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="M21" s="0" t="s">
+      <c r="M21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="0" t="n">
+      <c r="F22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="M22" s="0" t="s">
+      <c r="M22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="0" t="n">
+      <c r="G23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="0" t="n">
+      <c r="I23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="L23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="0" t="s">
+      <c r="L23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="0" t="n">
+      <c r="F24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24" s="1" t="n">
         <v>464</v>
       </c>
-      <c r="M24" s="0" t="s">
+      <c r="M24" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="0" t="n">
+      <c r="G25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="0" t="n">
+      <c r="I25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25" s="1" t="n">
         <v>464</v>
       </c>
-      <c r="M25" s="0" t="s">
+      <c r="M25" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="0" t="n">
+      <c r="F26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="M26" s="0" t="s">
+      <c r="M26" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="0" t="n">
+      <c r="F27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="M27" s="0" t="s">
+      <c r="M27" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="0" t="n">
+      <c r="G28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="0" t="n">
+      <c r="I28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="M28" s="0" t="s">
+      <c r="M28" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="0" t="n">
+      <c r="G29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="M29" s="0" t="s">
+      <c r="M29" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" s="0" t="n">
+      <c r="G30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="0" t="n">
+      <c r="I30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="M30" s="0" t="s">
+      <c r="M30" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="0" t="n">
+      <c r="G31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="0" t="n">
+      <c r="I31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="M31" s="0" t="s">
+      <c r="M31" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" s="0" t="n">
+      <c r="G32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="K32" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="L32" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M32" s="0" t="s">
+      <c r="M32" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" s="0" t="n">
+      <c r="G33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="L33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M33" s="0" t="s">
+      <c r="M33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34" s="1" t="n">
         <v>368</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="M34" s="0" t="s">
+      <c r="M34" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="0" t="n">
+      <c r="G35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" s="0" t="n">
+      <c r="I35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="L35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M35" s="0" t="s">
+      <c r="M35" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>272</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>416</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>448</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>416</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2" t="s">
         <v>66</v>
       </c>
     </row>
